--- a/기획서/스케쥴러.xlsx
+++ b/기획서/스케쥴러.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2E1A01-FFB7-4A6D-A9A8-4AE13FB25958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131EDF5F-B0D7-49A2-BF06-9424E686D131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -414,12 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +421,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0A2DD5-CC85-46AB-9EE6-6020AD31B8EF}">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,8 +757,8 @@
     <col min="1" max="1" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="17" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6" style="14" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="6" customWidth="1"/>
     <col min="6" max="91" width="2.625" style="3"/>
     <col min="92" max="92" width="3.5" style="3" bestFit="1" customWidth="1"/>
     <col min="93" max="16384" width="2.625" style="3"/>
@@ -791,10 +791,10 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -808,8 +808,8 @@
       <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -823,8 +823,8 @@
       <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -838,8 +838,8 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -853,8 +853,8 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -865,11 +865,11 @@
       <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -880,11 +880,11 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -892,14 +892,14 @@
       <c r="A9" s="3">
         <v>2021</v>
       </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -907,14 +907,14 @@
       <c r="A10" s="3">
         <v>2021</v>
       </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -922,14 +922,14 @@
       <c r="A11" s="3">
         <v>2021</v>
       </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -937,14 +937,14 @@
       <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
         <v>11</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -952,52 +952,52 @@
       <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
         <v>12</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2021</v>
       </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
         <v>13</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2021</v>
       </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
         <v>14</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2021</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="15">
         <v>0.1</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1005,14 +1005,14 @@
       <c r="A17" s="3">
         <v>2021</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1020,14 +1020,14 @@
       <c r="A18" s="3">
         <v>2021</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1035,14 +1035,14 @@
       <c r="A19" s="3">
         <v>2021</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
       <c r="A20" s="3">
         <v>2021</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>2</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1065,38 +1065,38 @@
       <c r="A21" s="3">
         <v>2021</v>
       </c>
-      <c r="B21" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2021</v>
       </c>
-      <c r="B22" s="9">
-        <v>2</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
         <v>21</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2021</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>2</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1104,14 +1104,14 @@
       <c r="A24" s="3">
         <v>2021</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1119,14 +1119,14 @@
       <c r="A25" s="3">
         <v>2021</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1134,14 +1134,14 @@
       <c r="A26" s="3">
         <v>2021</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>2</v>
       </c>
       <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1149,37 +1149,37 @@
       <c r="A27" s="3">
         <v>2021</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>2</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2021</v>
       </c>
-      <c r="B28" s="9">
-        <v>2</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10">
         <v>27</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2021</v>
       </c>
-      <c r="B29" s="9">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
         <v>28</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
@@ -1188,13 +1188,13 @@
       <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1208,9 +1208,9 @@
       <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7" t="s">
-        <v>29</v>
+      <c r="D31" s="15"/>
+      <c r="E31" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1223,10 +1223,7 @@
       <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -1238,7 +1235,7 @@
       <c r="C33" s="3">
         <v>4</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -1250,7 +1247,7 @@
       <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -1259,10 +1256,10 @@
       <c r="B35" s="3">
         <v>3</v>
       </c>
-      <c r="C35" s="11">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5"/>
+      <c r="C35" s="10">
+        <v>6</v>
+      </c>
+      <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -1271,10 +1268,10 @@
       <c r="B36" s="3">
         <v>3</v>
       </c>
-      <c r="C36" s="11">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="C36" s="10">
+        <v>7</v>
+      </c>
+      <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -1286,8 +1283,8 @@
       <c r="C37" s="3">
         <v>8</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1301,8 +1298,8 @@
       <c r="C38" s="3">
         <v>9</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1316,8 +1313,8 @@
       <c r="C39" s="3">
         <v>10</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1331,8 +1328,8 @@
       <c r="C40" s="3">
         <v>11</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1346,7 +1343,7 @@
       <c r="C41" s="3">
         <v>12</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -1355,10 +1352,10 @@
       <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>13</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -1367,10 +1364,10 @@
       <c r="B43" s="3">
         <v>3</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>14</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -1382,11 +1379,11 @@
       <c r="C44" s="3">
         <v>15</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>37</v>
+      <c r="E44" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1399,7 +1396,10 @@
       <c r="C45" s="3">
         <v>16</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -1411,9 +1411,9 @@
       <c r="C46" s="3">
         <v>17</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7" t="s">
-        <v>49</v>
+      <c r="D46" s="15"/>
+      <c r="E46" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,10 @@
       <c r="C47" s="3">
         <v>18</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -1438,10 +1441,7 @@
       <c r="C48" s="3">
         <v>19</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -1450,10 +1450,10 @@
       <c r="B49" s="3">
         <v>3</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>20</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -1462,10 +1462,10 @@
       <c r="B50" s="3">
         <v>3</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>21</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -1477,7 +1477,7 @@
       <c r="C51" s="3">
         <v>22</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -1489,7 +1489,7 @@
       <c r="C52" s="3">
         <v>23</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
@@ -1501,7 +1501,7 @@
       <c r="C53" s="3">
         <v>24</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
@@ -1513,8 +1513,8 @@
       <c r="C54" s="3">
         <v>25</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1528,8 +1528,8 @@
       <c r="C55" s="3">
         <v>26</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1540,10 +1540,10 @@
       <c r="B56" s="3">
         <v>3</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>27</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -1552,10 +1552,10 @@
       <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>28</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
@@ -1567,11 +1567,11 @@
       <c r="C58" s="3">
         <v>29</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>31</v>
+      <c r="E58" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,7 +1584,10 @@
       <c r="C59" s="3">
         <v>30</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
@@ -1596,7 +1599,7 @@
       <c r="C60" s="3">
         <v>31</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
@@ -1608,7 +1611,7 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
@@ -1620,7 +1623,7 @@
       <c r="C62" s="3">
         <v>2</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="15"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
@@ -1629,10 +1632,10 @@
       <c r="B63" s="3">
         <v>4</v>
       </c>
-      <c r="C63" s="11">
-        <v>3</v>
-      </c>
-      <c r="D63" s="5"/>
+      <c r="C63" s="10">
+        <v>3</v>
+      </c>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
@@ -1641,10 +1644,10 @@
       <c r="B64" s="3">
         <v>4</v>
       </c>
-      <c r="C64" s="11">
-        <v>4</v>
-      </c>
-      <c r="D64" s="5"/>
+      <c r="C64" s="10">
+        <v>4</v>
+      </c>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
@@ -1656,8 +1659,8 @@
       <c r="C65" s="3">
         <v>5</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1671,9 +1674,9 @@
       <c r="C66" s="3">
         <v>6</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7" t="s">
-        <v>50</v>
+      <c r="D66" s="15"/>
+      <c r="E66" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1686,7 +1689,7 @@
       <c r="C67" s="3">
         <v>7</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
@@ -1698,7 +1701,7 @@
       <c r="C68" s="3">
         <v>8</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
@@ -1710,7 +1713,7 @@
       <c r="C69" s="3">
         <v>9</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -1719,10 +1722,10 @@
       <c r="B70" s="3">
         <v>4</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <v>10</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="15"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -1731,10 +1734,10 @@
       <c r="B71" s="3">
         <v>4</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>11</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
@@ -1746,8 +1749,11 @@
       <c r="C72" s="3">
         <v>12</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="15" t="s">
         <v>22</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1760,7 +1766,7 @@
       <c r="C73" s="3">
         <v>13</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
@@ -1772,7 +1778,7 @@
       <c r="C74" s="3">
         <v>14</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -1784,7 +1790,7 @@
       <c r="C75" s="3">
         <v>15</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
@@ -1796,7 +1802,7 @@
       <c r="C76" s="3">
         <v>16</v>
       </c>
-      <c r="D76" s="5"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -1805,10 +1811,10 @@
       <c r="B77" s="3">
         <v>4</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>17</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
@@ -1817,10 +1823,10 @@
       <c r="B78" s="3">
         <v>4</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <v>18</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
@@ -1832,9 +1838,9 @@
       <c r="C79" s="3">
         <v>19</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="7" t="s">
-        <v>37</v>
+      <c r="D79" s="15"/>
+      <c r="E79" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1847,8 +1853,8 @@
       <c r="C80" s="3">
         <v>20</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="7" t="s">
+      <c r="D80" s="15"/>
+      <c r="E80" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1862,7 +1868,7 @@
       <c r="C81" s="3">
         <v>21</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
@@ -1874,7 +1880,7 @@
       <c r="C82" s="3">
         <v>22</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
@@ -1886,7 +1892,7 @@
       <c r="C83" s="3">
         <v>23</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="15"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
@@ -1895,10 +1901,10 @@
       <c r="B84" s="3">
         <v>4</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="10">
         <v>24</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
@@ -1907,10 +1913,10 @@
       <c r="B85" s="3">
         <v>4</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="10">
         <v>25</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
@@ -1922,11 +1928,11 @@
       <c r="C86" s="3">
         <v>26</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>41</v>
+      <c r="E86" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,10 +1945,7 @@
       <c r="C87" s="3">
         <v>27</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
@@ -1954,10 +1957,7 @@
       <c r="C88" s="3">
         <v>28</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
@@ -1969,7 +1969,7 @@
       <c r="C89" s="3">
         <v>29</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
@@ -1981,7 +1981,7 @@
       <c r="C90" s="3">
         <v>30</v>
       </c>
-      <c r="D90" s="5"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
@@ -1990,10 +1990,10 @@
       <c r="B91" s="3">
         <v>5</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="10">
         <v>1</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
@@ -2002,10 +2002,10 @@
       <c r="B92" s="3">
         <v>5</v>
       </c>
-      <c r="C92" s="11">
-        <v>2</v>
-      </c>
-      <c r="D92" s="5"/>
+      <c r="C92" s="10">
+        <v>2</v>
+      </c>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
@@ -2017,8 +2017,8 @@
       <c r="C93" s="3">
         <v>3</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="7" t="s">
+      <c r="D93" s="15"/>
+      <c r="E93" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="C94" s="3">
         <v>4</v>
       </c>
-      <c r="D94" s="5"/>
+      <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
@@ -2041,10 +2041,10 @@
       <c r="B95" s="3">
         <v>5</v>
       </c>
-      <c r="C95" s="10">
-        <v>5</v>
-      </c>
-      <c r="D95" s="5"/>
+      <c r="C95" s="9">
+        <v>5</v>
+      </c>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
@@ -2056,7 +2056,7 @@
       <c r="C96" s="3">
         <v>6</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="15"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
@@ -2068,7 +2068,7 @@
       <c r="C97" s="3">
         <v>7</v>
       </c>
-      <c r="D97" s="5"/>
+      <c r="D97" s="15"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
@@ -2077,10 +2077,10 @@
       <c r="B98" s="3">
         <v>5</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>8</v>
       </c>
-      <c r="D98" s="5"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
@@ -2089,10 +2089,10 @@
       <c r="B99" s="3">
         <v>5</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>9</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="15"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
@@ -2104,11 +2104,11 @@
       <c r="C100" s="3">
         <v>10</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>42</v>
+      <c r="E100" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2121,9 +2121,9 @@
       <c r="C101" s="3">
         <v>11</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="7" t="s">
-        <v>43</v>
+      <c r="D101" s="15"/>
+      <c r="E101" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2136,10 +2136,7 @@
       <c r="C102" s="3">
         <v>12</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="D102" s="15"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
@@ -2151,7 +2148,7 @@
       <c r="C103" s="3">
         <v>13</v>
       </c>
-      <c r="D103" s="5"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
@@ -2163,7 +2160,7 @@
       <c r="C104" s="3">
         <v>14</v>
       </c>
-      <c r="D104" s="5"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
@@ -2172,10 +2169,10 @@
       <c r="B105" s="3">
         <v>5</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="10">
         <v>15</v>
       </c>
-      <c r="D105" s="5"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
@@ -2184,10 +2181,10 @@
       <c r="B106" s="3">
         <v>5</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="10">
         <v>16</v>
       </c>
-      <c r="D106" s="5"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
@@ -2199,8 +2196,8 @@
       <c r="C107" s="3">
         <v>17</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="7" t="s">
+      <c r="D107" s="15"/>
+      <c r="E107" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2214,8 +2211,8 @@
       <c r="C108" s="3">
         <v>18</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="7" t="s">
+      <c r="D108" s="15"/>
+      <c r="E108" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2226,10 +2223,10 @@
       <c r="B109" s="3">
         <v>5</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="9">
         <v>19</v>
       </c>
-      <c r="D109" s="5"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
@@ -2241,7 +2238,7 @@
       <c r="C110" s="3">
         <v>20</v>
       </c>
-      <c r="D110" s="5"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
@@ -2253,7 +2250,7 @@
       <c r="C111" s="3">
         <v>21</v>
       </c>
-      <c r="D111" s="5"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
@@ -2262,10 +2259,10 @@
       <c r="B112" s="3">
         <v>5</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="10">
         <v>22</v>
       </c>
-      <c r="D112" s="5"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
@@ -2274,10 +2271,10 @@
       <c r="B113" s="3">
         <v>5</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C113" s="10">
         <v>23</v>
       </c>
-      <c r="D113" s="5"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
@@ -2289,11 +2286,11 @@
       <c r="C114" s="3">
         <v>24</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="7" t="s">
-        <v>45</v>
+      <c r="E114" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2306,10 +2303,7 @@
       <c r="C115" s="3">
         <v>25</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="D115" s="15"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
@@ -2321,10 +2315,7 @@
       <c r="C116" s="3">
         <v>26</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
@@ -2336,7 +2327,7 @@
       <c r="C117" s="3">
         <v>27</v>
       </c>
-      <c r="D117" s="5"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
@@ -2348,7 +2339,7 @@
       <c r="C118" s="3">
         <v>28</v>
       </c>
-      <c r="D118" s="5"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
@@ -2357,10 +2348,10 @@
       <c r="B119" s="3">
         <v>5</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="10">
         <v>29</v>
       </c>
-      <c r="D119" s="5"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
@@ -2369,10 +2360,10 @@
       <c r="B120" s="3">
         <v>5</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="10">
         <v>30</v>
       </c>
-      <c r="D120" s="5"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
@@ -2384,8 +2375,8 @@
       <c r="C121" s="3">
         <v>31</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="7" t="s">
+      <c r="D121" s="15"/>
+      <c r="E121" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2399,7 +2390,7 @@
       <c r="C122" s="3">
         <v>1</v>
       </c>
-      <c r="D122" s="5"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
@@ -2411,7 +2402,7 @@
       <c r="C123" s="3">
         <v>2</v>
       </c>
-      <c r="D123" s="5"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
@@ -2423,7 +2414,7 @@
       <c r="C124" s="3">
         <v>3</v>
       </c>
-      <c r="D124" s="5"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
@@ -2435,7 +2426,7 @@
       <c r="C125" s="3">
         <v>4</v>
       </c>
-      <c r="D125" s="5"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
@@ -2444,10 +2435,10 @@
       <c r="B126" s="3">
         <v>6</v>
       </c>
-      <c r="C126" s="11">
-        <v>5</v>
-      </c>
-      <c r="D126" s="5"/>
+      <c r="C126" s="10">
+        <v>5</v>
+      </c>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
@@ -2456,10 +2447,10 @@
       <c r="B127" s="3">
         <v>6</v>
       </c>
-      <c r="C127" s="11">
-        <v>6</v>
-      </c>
-      <c r="D127" s="5"/>
+      <c r="C127" s="10">
+        <v>6</v>
+      </c>
+      <c r="D127" s="15"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
@@ -2471,8 +2462,11 @@
       <c r="C128" s="3">
         <v>7</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="15" t="s">
         <v>26</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2485,7 +2479,10 @@
       <c r="C129" s="3">
         <v>8</v>
       </c>
-      <c r="D129" s="5"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
@@ -2497,7 +2494,7 @@
       <c r="C130" s="3">
         <v>9</v>
       </c>
-      <c r="D130" s="5"/>
+      <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
@@ -2509,7 +2506,7 @@
       <c r="C131" s="3">
         <v>10</v>
       </c>
-      <c r="D131" s="5"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
@@ -2521,7 +2518,7 @@
       <c r="C132" s="3">
         <v>11</v>
       </c>
-      <c r="D132" s="5"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
@@ -2530,10 +2527,10 @@
       <c r="B133" s="3">
         <v>6</v>
       </c>
-      <c r="C133" s="11">
+      <c r="C133" s="10">
         <v>12</v>
       </c>
-      <c r="D133" s="5"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
@@ -2542,10 +2539,10 @@
       <c r="B134" s="3">
         <v>6</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="10">
         <v>13</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
@@ -2557,8 +2554,8 @@
       <c r="C135" s="3">
         <v>14</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="7" t="s">
+      <c r="D135" s="15"/>
+      <c r="E135" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2572,7 +2569,7 @@
       <c r="C136" s="3">
         <v>15</v>
       </c>
-      <c r="D136" s="5"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
@@ -2584,7 +2581,7 @@
       <c r="C137" s="3">
         <v>16</v>
       </c>
-      <c r="D137" s="5"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
@@ -2596,7 +2593,7 @@
       <c r="C138" s="3">
         <v>17</v>
       </c>
-      <c r="D138" s="5"/>
+      <c r="D138" s="15"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
@@ -2608,7 +2605,7 @@
       <c r="C139" s="3">
         <v>18</v>
       </c>
-      <c r="D139" s="5"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
@@ -2617,10 +2614,10 @@
       <c r="B140" s="3">
         <v>6</v>
       </c>
-      <c r="C140" s="11">
+      <c r="C140" s="10">
         <v>19</v>
       </c>
-      <c r="D140" s="5"/>
+      <c r="D140" s="15"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
@@ -2629,10 +2626,10 @@
       <c r="B141" s="3">
         <v>6</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="10">
         <v>20</v>
       </c>
-      <c r="D141" s="5"/>
+      <c r="D141" s="15"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
@@ -2644,10 +2641,10 @@
       <c r="C142" s="3">
         <v>21</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2661,7 +2658,10 @@
       <c r="C143" s="3">
         <v>22</v>
       </c>
-      <c r="D143" s="13"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
@@ -2673,7 +2673,7 @@
       <c r="C144" s="3">
         <v>23</v>
       </c>
-      <c r="D144" s="13"/>
+      <c r="D144" s="17"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
@@ -2685,7 +2685,7 @@
       <c r="C145" s="3">
         <v>24</v>
       </c>
-      <c r="D145" s="13"/>
+      <c r="D145" s="17"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
@@ -2697,7 +2697,7 @@
       <c r="C146" s="3">
         <v>25</v>
       </c>
-      <c r="D146" s="13"/>
+      <c r="D146" s="17"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
@@ -2706,10 +2706,10 @@
       <c r="B147" s="3">
         <v>6</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="10">
         <v>26</v>
       </c>
-      <c r="D147" s="13"/>
+      <c r="D147" s="17"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
@@ -2718,10 +2718,10 @@
       <c r="B148" s="3">
         <v>6</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C148" s="10">
         <v>27</v>
       </c>
-      <c r="D148" s="13"/>
+      <c r="D148" s="17"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
@@ -2733,7 +2733,7 @@
       <c r="C149" s="3">
         <v>28</v>
       </c>
-      <c r="D149" s="13"/>
+      <c r="D149" s="17"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
@@ -2745,7 +2745,7 @@
       <c r="C150" s="3">
         <v>29</v>
       </c>
-      <c r="D150" s="13"/>
+      <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
@@ -2757,7 +2757,7 @@
       <c r="C151" s="3">
         <v>30</v>
       </c>
-      <c r="D151" s="13"/>
+      <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
@@ -2766,10 +2766,10 @@
       <c r="B152" s="3">
         <v>7</v>
       </c>
-      <c r="C152" s="14">
+      <c r="C152" s="11">
         <v>1</v>
       </c>
-      <c r="D152" s="13"/>
+      <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
@@ -2778,10 +2778,10 @@
       <c r="B153" s="3">
         <v>7</v>
       </c>
-      <c r="C153" s="14">
-        <v>2</v>
-      </c>
-      <c r="D153" s="13"/>
+      <c r="C153" s="11">
+        <v>2</v>
+      </c>
+      <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
@@ -2790,10 +2790,10 @@
       <c r="B154" s="3">
         <v>7</v>
       </c>
-      <c r="C154" s="15">
-        <v>3</v>
-      </c>
-      <c r="D154" s="13"/>
+      <c r="C154" s="12">
+        <v>3</v>
+      </c>
+      <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
@@ -2802,10 +2802,10 @@
       <c r="B155" s="3">
         <v>7</v>
       </c>
-      <c r="C155" s="15">
-        <v>4</v>
-      </c>
-      <c r="D155" s="13"/>
+      <c r="C155" s="12">
+        <v>4</v>
+      </c>
+      <c r="D155" s="17"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
@@ -2814,10 +2814,10 @@
       <c r="B156" s="3">
         <v>7</v>
       </c>
-      <c r="C156" s="14">
-        <v>5</v>
-      </c>
-      <c r="D156" s="16"/>
+      <c r="C156" s="11">
+        <v>5</v>
+      </c>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
@@ -2826,10 +2826,10 @@
       <c r="B157" s="3">
         <v>7</v>
       </c>
-      <c r="C157" s="14">
-        <v>6</v>
-      </c>
-      <c r="D157" s="16"/>
+      <c r="C157" s="11">
+        <v>6</v>
+      </c>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
@@ -2838,10 +2838,10 @@
       <c r="B158" s="3">
         <v>7</v>
       </c>
-      <c r="C158" s="14">
-        <v>7</v>
-      </c>
-      <c r="D158" s="16"/>
+      <c r="C158" s="11">
+        <v>7</v>
+      </c>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
@@ -2850,10 +2850,10 @@
       <c r="B159" s="3">
         <v>7</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="11">
         <v>8</v>
       </c>
-      <c r="D159" s="16"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
@@ -2862,10 +2862,10 @@
       <c r="B160" s="3">
         <v>7</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="11">
         <v>9</v>
       </c>
-      <c r="D160" s="16"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
@@ -2874,10 +2874,10 @@
       <c r="B161" s="3">
         <v>7</v>
       </c>
-      <c r="C161" s="15">
+      <c r="C161" s="12">
         <v>10</v>
       </c>
-      <c r="D161" s="16"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
@@ -2886,10 +2886,10 @@
       <c r="B162" s="3">
         <v>7</v>
       </c>
-      <c r="C162" s="15">
+      <c r="C162" s="12">
         <v>11</v>
       </c>
-      <c r="D162" s="16"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
@@ -2898,10 +2898,10 @@
       <c r="B163" s="3">
         <v>7</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="11">
         <v>12</v>
       </c>
-      <c r="D163" s="16"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
@@ -2954,7 +2954,7 @@
       <c r="B168" s="3">
         <v>7</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="10">
         <v>17</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       <c r="B169" s="3">
         <v>7</v>
       </c>
-      <c r="C169" s="11">
+      <c r="C169" s="10">
         <v>18</v>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       <c r="B175" s="3">
         <v>7</v>
       </c>
-      <c r="C175" s="11">
+      <c r="C175" s="10">
         <v>24</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       <c r="B176" s="3">
         <v>7</v>
       </c>
-      <c r="C176" s="11">
+      <c r="C176" s="10">
         <v>25</v>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       <c r="B182" s="3">
         <v>7</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="10">
         <v>31</v>
       </c>
     </row>

--- a/기획서/스케쥴러.xlsx
+++ b/기획서/스케쥴러.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongjae Yoon\Desktop\MonsterHunterSoldier\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131EDF5F-B0D7-49A2-BF06-9424E686D131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE238CA9-7611-46FF-A5DD-0471B56CBCA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
+    <workbookView xWindow="-22875" yWindow="0" windowWidth="18630" windowHeight="15600" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
   <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/기획서/스케쥴러.xlsx
+++ b/기획서/스케쥴러.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongjae Yoon\Desktop\MonsterHunterSoldier\Kronos2\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE238CA9-7611-46FF-A5DD-0471B56CBCA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20CFC21-F7EE-4AF5-B8A2-1F93B02F58F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22875" yWindow="0" windowWidth="18630" windowHeight="15600" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +431,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +752,7 @@
   <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,10 +925,10 @@
       <c r="A11" s="3">
         <v>2021</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
         <v>10</v>
       </c>
       <c r="D11" s="15"/>
@@ -937,10 +940,10 @@
       <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="18">
         <v>11</v>
       </c>
       <c r="D12" s="15"/>
@@ -952,10 +955,10 @@
       <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18">
         <v>12</v>
       </c>
       <c r="D13" s="15"/>
@@ -964,10 +967,10 @@
       <c r="A14" s="3">
         <v>2021</v>
       </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
         <v>13</v>
       </c>
       <c r="D14" s="15"/>
@@ -976,10 +979,10 @@
       <c r="A15" s="3">
         <v>2021</v>
       </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="15"/>
@@ -988,10 +991,10 @@
       <c r="A16" s="3">
         <v>2021</v>
       </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="15">
@@ -1005,10 +1008,10 @@
       <c r="A17" s="3">
         <v>2021</v>
       </c>
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="15"/>
@@ -1020,10 +1023,10 @@
       <c r="A18" s="3">
         <v>2021</v>
       </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="15"/>
@@ -1035,10 +1038,10 @@
       <c r="A19" s="3">
         <v>2021</v>
       </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="15"/>
@@ -1050,10 +1053,10 @@
       <c r="A20" s="3">
         <v>2021</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="15"/>

--- a/기획서/스케쥴러.xlsx
+++ b/기획서/스케쥴러.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E573C-9126-4253-A33F-98309F387393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C639B0A2-9CA5-45E9-99A8-79FAF5CA93AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
+    <workbookView xWindow="28965" yWindow="180" windowWidth="21840" windowHeight="15555" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
   <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,10 +1068,10 @@
       <c r="A21" s="3">
         <v>2021</v>
       </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
         <v>20</v>
       </c>
       <c r="D21" s="16"/>
@@ -1080,10 +1080,10 @@
       <c r="A22" s="3">
         <v>2021</v>
       </c>
-      <c r="B22" s="8">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
         <v>21</v>
       </c>
       <c r="D22" s="16"/>
@@ -1099,7 +1099,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/기획서/스케쥴러.xlsx
+++ b/기획서/스케쥴러.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongjae Yoon\Desktop\MonsterHunterSoldier\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E573C-9126-4253-A33F-98309F387393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794AE7D2-88D8-43AA-998B-F1B2D5D0BA12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
+    <workbookView xWindow="-22875" yWindow="0" windowWidth="18630" windowHeight="15600" xr2:uid="{A1325FE3-55AA-4369-AA0E-5D3AF8D59A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0A2DD5-CC85-46AB-9EE6-6020AD31B8EF}">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1144,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/기획서/스케쥴러.xlsx
+++ b/기획서/스케쥴러.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤성재\Desktop\Kronos\Kronos2\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF8ACD2-26A9-4430-9BB9-72FD1DCD0A4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9832F04D-118B-4185-BFC7-CA0C57DADBC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AFE4EEE8-8329-4A24-9646-57881D81980F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>0.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>17~19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 테마 몬스터 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장간(성물 강화) 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,83 +557,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98080982-6B34-4087-84EC-36605A74DD24}">
   <dimension ref="A1:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,71 +972,71 @@
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:30" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="32">
         <v>0.1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="17">
+      <c r="B2" s="33"/>
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>2</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <v>3</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>4</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <v>5</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="15">
         <v>6</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="16">
         <v>7</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="14">
         <v>8</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="14">
         <v>9</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="14">
         <v>10</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="14">
         <v>11</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="14">
         <v>12</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="15">
         <v>13</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="16">
         <v>14</v>
       </c>
       <c r="Q2" s="2"/>
@@ -1155,88 +1163,88 @@
       <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:30" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="32">
         <v>0.2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17">
+      <c r="B10" s="33"/>
+      <c r="C10" s="14">
         <v>15</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>16</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>17</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <v>18</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>19</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>20</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>21</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="14">
         <v>22</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
         <v>23</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="14">
         <v>24</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="14">
         <v>25</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="14">
         <v>26</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="15">
         <v>27</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="16">
         <v>28</v>
       </c>
     </row>
@@ -1247,20 +1255,20 @@
       <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1269,20 +1277,20 @@
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1291,20 +1299,20 @@
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1313,20 +1321,20 @@
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1335,20 +1343,20 @@
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
@@ -1368,68 +1376,68 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="32">
         <v>0.3</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="36">
+      <c r="B18" s="33"/>
+      <c r="C18" s="30">
         <v>3.1</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="14">
         <v>2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>3</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>4</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>5</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>6</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="16">
         <v>7</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="14">
         <v>8</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="14">
         <v>9</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="14">
         <v>10</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="14">
         <v>11</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="14">
         <v>12</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="15">
         <v>13</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="16">
         <v>14</v>
       </c>
       <c r="R18" s="5" t="s">
@@ -1443,34 +1451,34 @@
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
       <c r="R19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1482,21 +1490,23 @@
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="R20" s="1"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="R20" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1505,20 +1515,20 @@
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1527,127 +1537,127 @@
       <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
       <c r="R23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
       <c r="R24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="R25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="17">
+      <c r="B26" s="33"/>
+      <c r="C26" s="14">
         <v>15</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>16</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>17</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="14">
         <v>18</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <v>19</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="15">
         <v>20</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="16">
         <v>21</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="14">
         <v>22</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="14">
         <v>23</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="14">
         <v>24</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="14">
         <v>25</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="14">
         <v>26</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="15">
         <v>27</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="16">
         <v>28</v>
       </c>
       <c r="R26" s="5" t="s">
@@ -1661,20 +1671,20 @@
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
       <c r="R27" s="5" t="s">
         <v>31</v>
       </c>
@@ -1780,71 +1790,71 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
       <c r="R33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="17">
+      <c r="B34" s="33"/>
+      <c r="C34" s="14">
         <v>29</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="14">
         <v>30</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="14">
         <v>31</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="14">
         <v>2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <v>3</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="16">
         <v>4</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="14">
         <v>5</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="14">
         <v>6</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="14">
         <v>7</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="14">
         <v>8</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="14">
         <v>9</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="15">
         <v>10</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="16">
         <v>11</v>
       </c>
       <c r="R34" s="5" t="s">
@@ -1967,70 +1977,73 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
+      <c r="R40" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
     </row>
     <row r="42" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="17">
+      <c r="B42" s="33"/>
+      <c r="C42" s="14">
         <v>12</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="14">
         <v>13</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="14">
         <v>14</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>15</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="14">
         <v>16</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="15">
         <v>17</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="16">
         <v>18</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="14">
         <v>19</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="14">
         <v>20</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="14">
         <v>21</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="14">
         <v>22</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="14">
         <v>23</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="15">
         <v>24</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="16">
         <v>25</v>
       </c>
     </row>
@@ -2137,68 +2150,68 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
     </row>
     <row r="50" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="17">
+      <c r="B50" s="33"/>
+      <c r="C50" s="14">
         <v>26</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="14">
         <v>27</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="14">
         <v>28</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="14">
         <v>29</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="14">
         <v>30</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="16">
         <v>2</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="14">
         <v>3</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K50" s="14">
         <v>4</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="14">
         <v>5</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="14">
         <v>6</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="14">
         <v>7</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="15">
         <v>8</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P50" s="16">
         <v>9</v>
       </c>
     </row>
@@ -2305,68 +2318,68 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="15"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
     </row>
     <row r="58" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="17">
+      <c r="B58" s="33"/>
+      <c r="C58" s="14">
         <v>10</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="14">
         <v>11</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="14">
         <v>12</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="14">
         <v>13</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="14">
         <v>14</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="15">
         <v>15</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="16">
         <v>16</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="14">
         <v>17</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="14">
         <v>18</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="14">
         <v>19</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="14">
         <v>20</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="14">
         <v>21</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O58" s="15">
         <v>22</v>
       </c>
-      <c r="P58" s="19">
+      <c r="P58" s="16">
         <v>23</v>
       </c>
     </row>
@@ -2473,68 +2486,68 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
     </row>
     <row r="66" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="17">
+      <c r="B66" s="33"/>
+      <c r="C66" s="14">
         <v>24</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="14">
         <v>25</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="14">
         <v>26</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="14">
         <v>27</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="14">
         <v>28</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="15">
         <v>29</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="16">
         <v>30</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="14">
         <v>31</v>
       </c>
-      <c r="K66" s="36">
+      <c r="K66" s="30">
         <v>6.1</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="14">
         <v>2</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="14">
         <v>3</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N66" s="14">
         <v>4</v>
       </c>
-      <c r="O66" s="18">
+      <c r="O66" s="15">
         <v>5</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P66" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2641,68 +2654,68 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
     </row>
     <row r="74" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="17">
+      <c r="B74" s="33"/>
+      <c r="C74" s="14">
         <v>7</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="14">
         <v>8</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="14">
         <v>9</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="14">
         <v>10</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="14">
         <v>11</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="15">
         <v>12</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="16">
         <v>13</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J74" s="14">
         <v>14</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K74" s="14">
         <v>15</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L74" s="14">
         <v>16</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="14">
         <v>17</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N74" s="14">
         <v>18</v>
       </c>
-      <c r="O74" s="18">
+      <c r="O74" s="15">
         <v>19</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P74" s="16">
         <v>20</v>
       </c>
     </row>
@@ -2809,22 +2822,22 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
     </row>
     <row r="82" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
@@ -2840,6 +2853,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C1:P1"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="D19:F19"/>
@@ -2847,11 +2865,6 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
